--- a/data_koae/excel/KOAE_2011.xlsx
+++ b/data_koae/excel/KOAE_2011.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="ex" sheetId="1" r:id="rId1"/>
     <sheet name="2011rawLGO+GAMIT" sheetId="2" r:id="rId2"/>
     <sheet name="2011use" sheetId="3" r:id="rId3"/>
+    <sheet name="out" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="125">
   <si>
     <t>id site</t>
   </si>
@@ -4322,7 +4323,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L66"/>
+      <selection activeCell="B11" sqref="B11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4711,38 +4712,38 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>2011</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>-5469114.0473999996</v>
-      </c>
-      <c r="F11">
-        <v>-2518271.0564000001</v>
-      </c>
-      <c r="G11">
-        <v>2100233.5436999998</v>
-      </c>
-      <c r="H11">
-        <v>19.349557580654398</v>
-      </c>
-      <c r="I11">
-        <v>-155.27614199568001</v>
-      </c>
-      <c r="J11">
-        <v>1016.66899987217</v>
-      </c>
-      <c r="K11">
-        <v>260891.56019215801</v>
-      </c>
-      <c r="L11">
-        <v>2141080.1759356</v>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -4901,38 +4902,38 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>2011</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>-5469110.4439108111</v>
-      </c>
-      <c r="F16">
-        <v>-2518104.5281216218</v>
-      </c>
-      <c r="G16">
-        <v>2100461.3299753424</v>
-      </c>
-      <c r="H16">
-        <v>19.351717017392399</v>
-      </c>
-      <c r="I16">
-        <v>-155.277567081825</v>
-      </c>
-      <c r="J16">
-        <v>1023.34448294248</v>
-      </c>
-      <c r="K16">
-        <v>260744.94401514399</v>
-      </c>
-      <c r="L16">
-        <v>2141321.2433390799</v>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -6833,6 +6834,97 @@
       </c>
       <c r="L66" t="s">
         <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>-5469110.4439108111</v>
+      </c>
+      <c r="F1">
+        <v>-2518104.5281216218</v>
+      </c>
+      <c r="G1">
+        <v>2100461.3299753424</v>
+      </c>
+      <c r="H1">
+        <v>19.351717017392399</v>
+      </c>
+      <c r="I1">
+        <v>-155.277567081825</v>
+      </c>
+      <c r="J1">
+        <v>1023.34448294248</v>
+      </c>
+      <c r="K1">
+        <v>260744.94401514399</v>
+      </c>
+      <c r="L1">
+        <v>2141321.2433390799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>-5469114.0473999996</v>
+      </c>
+      <c r="F2">
+        <v>-2518271.0564000001</v>
+      </c>
+      <c r="G2">
+        <v>2100233.5436999998</v>
+      </c>
+      <c r="H2">
+        <v>19.349557580654398</v>
+      </c>
+      <c r="I2">
+        <v>-155.27614199568001</v>
+      </c>
+      <c r="J2">
+        <v>1016.66899987217</v>
+      </c>
+      <c r="K2">
+        <v>260891.56019215801</v>
+      </c>
+      <c r="L2">
+        <v>2141080.1759356</v>
       </c>
     </row>
   </sheetData>
